--- a/FMS.Website/files_upload/masterCostOB.xlsx
+++ b/FMS.Website/files_upload/masterCostOB.xlsx
@@ -4,44 +4,705 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="7365"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Import Cost OB" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
+    <externalReference r:id="rId32"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Import Cost OB'!$A$1:$CM$10</definedName>
+    <definedName name="\x">#REF!</definedName>
+    <definedName name="_______________________box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="_______________________jkt2">#REF!</definedName>
+    <definedName name="______________________box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="______________________jkt2">#REF!</definedName>
+    <definedName name="_____________________box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="_____________________jkt2">#REF!</definedName>
+    <definedName name="____________________box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="____________________jkt2">#REF!</definedName>
+    <definedName name="___________________box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="___________________jkt2">#REF!</definedName>
+    <definedName name="__________________box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="__________________jkt2">#REF!</definedName>
+    <definedName name="_________________box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="_________________jkt2">#REF!</definedName>
+    <definedName name="________________box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="________________jkt2">#REF!</definedName>
+    <definedName name="_______________box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="_______________jkt2">#REF!</definedName>
+    <definedName name="______________box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="______________jkt2">#REF!</definedName>
+    <definedName name="_____________box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="_____________jkt2">#REF!</definedName>
+    <definedName name="____________box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="____________jkt2">#REF!</definedName>
+    <definedName name="___________box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="___________jkt2">#REF!</definedName>
+    <definedName name="__________box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="__________jkt2">#REF!</definedName>
+    <definedName name="_________box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="_________jkt2">#REF!</definedName>
+    <definedName name="________box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="________jkt2">#REF!</definedName>
+    <definedName name="_______box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="_______jkt2">#REF!</definedName>
+    <definedName name="______box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="______jkt2">#REF!</definedName>
+    <definedName name="_____box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="_____jkt2">#REF!</definedName>
+    <definedName name="____box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="____jkt2">#REF!</definedName>
+    <definedName name="___box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="___jkt2">#REF!</definedName>
+    <definedName name="__box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="__jkt2">#REF!</definedName>
+    <definedName name="_box1">[1]MASTER!$K$3:$K$5</definedName>
+    <definedName name="_jkt2">#REF!</definedName>
+    <definedName name="_Key2" hidden="1">#REF!</definedName>
+    <definedName name="_Order2" hidden="1">0</definedName>
+    <definedName name="_PO2">#REF!</definedName>
+    <definedName name="_x">#REF!</definedName>
+    <definedName name="A">[2]MASTER!$I$3:$I$32</definedName>
+    <definedName name="aaaa">[1]MASTER!$C$3:$C$45</definedName>
+    <definedName name="Activity">'[3]6_Activity'!$B$2:$B$28</definedName>
+    <definedName name="asdasd">[4]MASTER!$B$3:$B$12</definedName>
+    <definedName name="ASSJIIKASD">#REF!</definedName>
+    <definedName name="b">[5]MASTER!$G$3:$G$43</definedName>
+    <definedName name="b_8">[6]MASTER!$G$3:$G$43</definedName>
+    <definedName name="BALINT">#REF!</definedName>
+    <definedName name="Base_Equipment">#REF!</definedName>
+    <definedName name="Box">[7]MASTER!$K$3:$K$5</definedName>
+    <definedName name="boxua">[5]MASTER!$I$3:$I$31</definedName>
+    <definedName name="boxua_8">[6]MASTER!$I$3:$I$31</definedName>
+    <definedName name="BOXUANG">#REF!</definedName>
+    <definedName name="BOXUANG_8">[8]MASTER!$K$3:$K$5</definedName>
+    <definedName name="Brand">[5]MASTER!$J$3:$J$13</definedName>
+    <definedName name="Brand_8">[6]MASTER!$J$3:$J$13</definedName>
+    <definedName name="Brand_9">'[3]3_Brand'!$A$2:$A$38</definedName>
+    <definedName name="BRANDING">#REF!</definedName>
+    <definedName name="BRANDING_8">[8]MASTER!$J$3:$J$13</definedName>
+    <definedName name="BULAN">[9]MASTER!$F$3:$F$14</definedName>
+    <definedName name="BULAN_8">[8]MASTER!$F$3:$F$14</definedName>
+    <definedName name="cgchf">[5]MASTER!$C$3:$C$45</definedName>
+    <definedName name="cgchf_8">[6]MASTER!$C$3:$C$45</definedName>
+    <definedName name="cinema">#REF!</definedName>
+    <definedName name="color">[1]MASTER!$H$3:$H$12</definedName>
+    <definedName name="Corporate_Tax_Rate">[10]Assumption!#REF!</definedName>
+    <definedName name="CPU_Equipment">#REF!</definedName>
+    <definedName name="creativeother">#REF!</definedName>
+    <definedName name="creativeretainer">#REF!</definedName>
+    <definedName name="d">#REF!</definedName>
+    <definedName name="dasfgdfasgf">[5]MASTER!$I$3:$I$31</definedName>
+    <definedName name="dasfgdfasgf_8">[6]MASTER!$I$3:$I$31</definedName>
+    <definedName name="data">#REF!</definedName>
+    <definedName name="Database">#REF!</definedName>
+    <definedName name="dd">[11]MASTER!$C$3:$C$45</definedName>
+    <definedName name="dd_8">[12]MASTER!$C$3:$C$45</definedName>
+    <definedName name="dfdf">[5]MASTER!$K$3:$K$5</definedName>
+    <definedName name="dfdf_8">[6]MASTER!$K$3:$K$5</definedName>
+    <definedName name="dfhdfh">[5]MASTER!$G$3:$G$43</definedName>
+    <definedName name="dfhdfh_8">[6]MASTER!$G$3:$G$43</definedName>
+    <definedName name="dfhdhdh">[5]MASTER!$H$3:$H$12</definedName>
+    <definedName name="dfhdhdh_8">[6]MASTER!$H$3:$H$12</definedName>
+    <definedName name="dfsffghhh">[5]MASTER!$K$3:$K$5</definedName>
+    <definedName name="dfsffghhh_8">[6]MASTER!$K$3:$K$5</definedName>
+    <definedName name="dggdg">[5]MASTER!$C$3:$C$45</definedName>
+    <definedName name="dggdg_8">[6]MASTER!$C$3:$C$45</definedName>
+    <definedName name="dggdgd">[5]MASTER!$H$3:$H$12</definedName>
+    <definedName name="dggdgd_8">[6]MASTER!$H$3:$H$12</definedName>
+    <definedName name="dggdgdg">[5]MASTER!$D$3:$D$17</definedName>
+    <definedName name="dggdgdg_8">[6]MASTER!$D$3:$D$17</definedName>
+    <definedName name="dggsgsdg">[5]MASTER!$D$3:$D$17</definedName>
+    <definedName name="dggsgsdg_8">[6]MASTER!$D$3:$D$17</definedName>
+    <definedName name="dghdh">[5]MASTER!$I$3:$I$31</definedName>
+    <definedName name="dghdh_8">[6]MASTER!$I$3:$I$31</definedName>
+    <definedName name="dgsg">[5]MASTER!$D$3:$D$17</definedName>
+    <definedName name="dgsg_8">[6]MASTER!$D$3:$D$17</definedName>
+    <definedName name="dhdfhdh">[5]MASTER!$B$3:$B$12</definedName>
+    <definedName name="dhdfhdh_8">[6]MASTER!$B$3:$B$12</definedName>
+    <definedName name="dhdhhdfh">[5]MASTER!$I$3:$I$31</definedName>
+    <definedName name="dhdhhdfh_8">[6]MASTER!$I$3:$I$31</definedName>
+    <definedName name="dinv0">#REF!</definedName>
+    <definedName name="dinv1">#REF!</definedName>
+    <definedName name="dinv2">#REF!</definedName>
+    <definedName name="dinv3">#REF!</definedName>
+    <definedName name="dinv4">#REF!</definedName>
+    <definedName name="directmkt">#REF!</definedName>
+    <definedName name="Discount_Rate">[10]Assumption!#REF!</definedName>
+    <definedName name="DME">#REF!</definedName>
+    <definedName name="drei">#REF!</definedName>
+    <definedName name="drei0">#REF!</definedName>
+    <definedName name="dsggsd">[5]MASTER!$J$3:$J$13</definedName>
+    <definedName name="dsggsd_8">[6]MASTER!$J$3:$J$13</definedName>
+    <definedName name="dsinfra">#REF!</definedName>
+    <definedName name="dsmlbdisc">#REF!</definedName>
+    <definedName name="dspremium">#REF!</definedName>
+    <definedName name="e">[13]MASTER!$G$3:$G$43</definedName>
+    <definedName name="Excel_BuiltIn_Database">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1">'[14]Temp (Oct-10)'!#REF!</definedName>
+    <definedName name="Exchange_Rate">[10]Assumption!#REF!</definedName>
+    <definedName name="f">[13]MASTER!$H$3:$H$12</definedName>
+    <definedName name="fdfdf">[1]MASTER!$B$3:$B$12</definedName>
+    <definedName name="ffff">[1]MASTER!$J$3:$J$10</definedName>
+    <definedName name="ffsgg">[5]MASTER!$I$3:$I$31</definedName>
+    <definedName name="ffsgg_8">[6]MASTER!$I$3:$I$31</definedName>
+    <definedName name="fgfgg">[1]MASTER!$I$3:$I$30</definedName>
+    <definedName name="fghhh">[5]MASTER!$J$3:$J$13</definedName>
+    <definedName name="fghhh_8">[6]MASTER!$J$3:$J$13</definedName>
+    <definedName name="fgjfjf">[5]MASTER!$G$3:$G$43</definedName>
+    <definedName name="fgjfjf_8">[6]MASTER!$G$3:$G$43</definedName>
+    <definedName name="flavor">#REF!</definedName>
+    <definedName name="FUNGSIKDR">#REF!</definedName>
+    <definedName name="FUNGSIKDR_8">[8]MASTER!$I$3:$I$31</definedName>
+    <definedName name="fyf">[5]MASTER!$C$3:$C$45</definedName>
+    <definedName name="fyf_8">[6]MASTER!$C$3:$C$45</definedName>
+    <definedName name="gdfgdf">[1]MASTER!$H$3:$H$12</definedName>
+    <definedName name="gdfgdfg">[1]MASTER!$G$3:$G$43</definedName>
+    <definedName name="gfdfgdg">[5]MASTER!$K$3:$K$5</definedName>
+    <definedName name="gfdfgdg_8">[6]MASTER!$K$3:$K$5</definedName>
+    <definedName name="gfdgf">[1]MASTER!$J$3:$J$10</definedName>
+    <definedName name="gfgdfgd">[5]MASTER!$K$3:$K$5</definedName>
+    <definedName name="gfgdfgd_8">[6]MASTER!$K$3:$K$5</definedName>
+    <definedName name="gfhgfhsd">[5]MASTER!$C$3:$C$45</definedName>
+    <definedName name="gfhgfhsd_8">[6]MASTER!$C$3:$C$45</definedName>
+    <definedName name="gfjfhj">[5]MASTER!$D$3:$D$17</definedName>
+    <definedName name="gfjfhj_8">[6]MASTER!$D$3:$D$17</definedName>
+    <definedName name="ggdg">[1]MASTER!$D$3:$D$17</definedName>
+    <definedName name="ggdg_8">[6]MASTER!$I$3:$I$31</definedName>
+    <definedName name="ggg">[5]MASTER!$B$3:$B$12</definedName>
+    <definedName name="ggg_8">[6]MASTER!$B$3:$B$12</definedName>
+    <definedName name="gggs">[5]MASTER!$H$3:$H$12</definedName>
+    <definedName name="gggs_8">[6]MASTER!$H$3:$H$12</definedName>
+    <definedName name="ggsgs">[5]MASTER!$C$3:$C$45</definedName>
+    <definedName name="ggsgs_8">[6]MASTER!$C$3:$C$45</definedName>
+    <definedName name="ghfh">[15]MASTER!$D$3:$D$17</definedName>
+    <definedName name="ghfh_8">[16]MASTER!$D$3:$D$17</definedName>
+    <definedName name="ghhujgk">[5]MASTER!$G$3:$G$43</definedName>
+    <definedName name="ghhujgk_8">[6]MASTER!$G$3:$G$43</definedName>
+    <definedName name="gjg">[5]MASTER!$G$3:$G$43</definedName>
+    <definedName name="gjg_8">[6]MASTER!$G$3:$G$43</definedName>
+    <definedName name="gsdfgsjfgjhgfks">[5]MASTER!$D$3:$D$17</definedName>
+    <definedName name="gsdfgsjfgjhgfks_8">[6]MASTER!$D$3:$D$17</definedName>
+    <definedName name="h">[5]MASTER!$J$3:$J$13</definedName>
+    <definedName name="h_8">[6]MASTER!$J$3:$J$13</definedName>
+    <definedName name="hahha">[5]MASTER!$I$3:$I$31</definedName>
+    <definedName name="hahha_8">[6]MASTER!$I$3:$I$31</definedName>
+    <definedName name="harga">#REF!</definedName>
+    <definedName name="hdhdhd">[5]MASTER!$B$3:$B$12</definedName>
+    <definedName name="hdhdhd_8">[6]MASTER!$B$3:$B$12</definedName>
+    <definedName name="Header">#REF!</definedName>
+    <definedName name="hfjj">[5]MASTER!$D$3:$D$17</definedName>
+    <definedName name="hfjj_8">[6]MASTER!$D$3:$D$17</definedName>
+    <definedName name="hgfhgfh">[5]MASTER!$K$3:$K$5</definedName>
+    <definedName name="hgfhgfh_8">[6]MASTER!$K$3:$K$5</definedName>
+    <definedName name="hgfjjf">[5]MASTER!$J$3:$J$13</definedName>
+    <definedName name="hgfjjf_8">[6]MASTER!$J$3:$J$13</definedName>
+    <definedName name="hgt">[5]MASTER!$H$3:$H$12</definedName>
+    <definedName name="hgt_8">[6]MASTER!$H$3:$H$12</definedName>
+    <definedName name="HH">[1]MASTER!$D$3:$D$17</definedName>
+    <definedName name="hhdhdh">[5]MASTER!$C$3:$C$45</definedName>
+    <definedName name="hhdhdh_8">[6]MASTER!$C$3:$C$45</definedName>
+    <definedName name="hhdhh">[5]MASTER!$G$3:$G$43</definedName>
+    <definedName name="hhdhh_8">[6]MASTER!$G$3:$G$43</definedName>
+    <definedName name="hhdhhd">[1]MASTER!$D$3:$D$17</definedName>
+    <definedName name="hhghgjhg">[5]MASTER!$D$3:$D$17</definedName>
+    <definedName name="hhghgjhg_8">[6]MASTER!$D$3:$D$17</definedName>
+    <definedName name="hhh">[5]MASTER!$J$3:$J$13</definedName>
+    <definedName name="hhh_8">[6]MASTER!$J$3:$J$13</definedName>
+    <definedName name="hhhgh">[5]MASTER!$D$3:$D$17</definedName>
+    <definedName name="hhhgh_8">[6]MASTER!$D$3:$D$17</definedName>
+    <definedName name="hhhh">[5]MASTER!$B$3:$B$12</definedName>
+    <definedName name="hhhh_8">[6]MASTER!$B$3:$B$12</definedName>
+    <definedName name="hhubf">[1]MASTER!$C$3:$C$45</definedName>
+    <definedName name="ht">#REF!</definedName>
+    <definedName name="I">[17]MASTER!$C$3:$C$45</definedName>
+    <definedName name="i_8">[6]MASTER!$I$3:$I$31</definedName>
+    <definedName name="INTIM">#REF!</definedName>
+    <definedName name="j">[5]MASTER!$K$3:$K$5</definedName>
+    <definedName name="j_8">[6]MASTER!$K$3:$K$5</definedName>
+    <definedName name="JABAR">#REF!</definedName>
+    <definedName name="JAKARTA">#REF!</definedName>
+    <definedName name="JATENG">#REF!</definedName>
+    <definedName name="JATIM">#REF!</definedName>
+    <definedName name="JENIS">#REF!</definedName>
+    <definedName name="JENIS_8">[8]MASTER!$D$3:$D$17</definedName>
+    <definedName name="jggjg">[5]MASTER!$C$3:$C$45</definedName>
+    <definedName name="jggjg_8">[6]MASTER!$C$3:$C$45</definedName>
+    <definedName name="jghjghj">[5]MASTER!$I$3:$I$31</definedName>
+    <definedName name="jghjghj_8">[6]MASTER!$I$3:$I$31</definedName>
+    <definedName name="jhjhj">[5]MASTER!$C$3:$C$45</definedName>
+    <definedName name="jhjhj_8">[6]MASTER!$C$3:$C$45</definedName>
+    <definedName name="jhjj">[5]MASTER!$B$3:$B$12</definedName>
+    <definedName name="jhjj_8">[6]MASTER!$B$3:$B$12</definedName>
+    <definedName name="k">[13]MASTER!$C$3:$C$45</definedName>
+    <definedName name="KALIMANTAN">#REF!</definedName>
+    <definedName name="karawang">[2]MASTER!$I$3:$I$32</definedName>
+    <definedName name="KDRAN">#REF!</definedName>
+    <definedName name="khjkhk">[5]MASTER!$C$3:$C$45</definedName>
+    <definedName name="khjkhk_8">[6]MASTER!$C$3:$C$45</definedName>
+    <definedName name="kkk">[5]MASTER!$B$3:$B$12</definedName>
+    <definedName name="kkk_8">[6]MASTER!$B$3:$B$12</definedName>
+    <definedName name="kkkk">[1]MASTER!$I$3:$I$30</definedName>
+    <definedName name="kllkl">[1]MASTER!$B$3:$B$12</definedName>
+    <definedName name="kllll">[1]MASTER!$H$3:$H$12</definedName>
+    <definedName name="KUAT">#REF!</definedName>
+    <definedName name="lamppoc">#REF!</definedName>
+    <definedName name="llkkk">[5]MASTER!$C$3:$C$45</definedName>
+    <definedName name="llkkk_8">[6]MASTER!$C$3:$C$45</definedName>
+    <definedName name="llll">[13]MASTER!$J$3:$J$10</definedName>
+    <definedName name="lllll">[1]MASTER!$G$3:$G$43</definedName>
+    <definedName name="m">[13]MASTER!$D$3:$D$17</definedName>
+    <definedName name="made">#REF!</definedName>
+    <definedName name="Magelang">[18]MASTER!$J$3:$J$10</definedName>
+    <definedName name="Magelang1">#REF!</definedName>
+    <definedName name="MAGELANGG">[18]MASTER!$J$3:$J$10</definedName>
+    <definedName name="MANA">#REF!</definedName>
+    <definedName name="MAT">#REF!</definedName>
+    <definedName name="Medan">[19]MASTER!$K$3:$K$4</definedName>
+    <definedName name="MERK">#REF!</definedName>
+    <definedName name="MERK_8">[8]MASTER!$B$3:$B$12</definedName>
+    <definedName name="mny">#REF!</definedName>
+    <definedName name="NAMA">#REF!</definedName>
+    <definedName name="njhjgjjg">[5]MASTER!$B$3:$B$12</definedName>
+    <definedName name="njhjgjjg_8">[6]MASTER!$B$3:$B$12</definedName>
+    <definedName name="NO">[20]Excel!#REF!</definedName>
+    <definedName name="NOI">'[21]Payment 2008'!$E$1:$E$65536</definedName>
+    <definedName name="NOMOR">#REF!</definedName>
+    <definedName name="o">[13]MASTER!$I$3:$I$30</definedName>
+    <definedName name="o_8">[6]MASTER!$H$3:$H$12</definedName>
+    <definedName name="okta">[1]MASTER!$J$3:$J$10</definedName>
+    <definedName name="okta2">[1]MASTER!$H$3:$H$12</definedName>
+    <definedName name="OOHmedia">#REF!</definedName>
+    <definedName name="OOHproduction">#REF!</definedName>
+    <definedName name="oooo">[1]MASTER!$C$3:$C$45</definedName>
+    <definedName name="p">[13]MASTER!$B$3:$B$12</definedName>
+    <definedName name="p_8">[6]MASTER!$D$3:$D$17</definedName>
+    <definedName name="PO">#REF!</definedName>
+    <definedName name="Positionlist">[22]Position!$D$3:$D$42</definedName>
+    <definedName name="pr">#REF!</definedName>
+    <definedName name="Print_Area_MI_8">'[14]Panduan Area'!#REF!</definedName>
+    <definedName name="printother">#REF!</definedName>
+    <definedName name="printthematic">#REF!</definedName>
+    <definedName name="Program">#REF!</definedName>
+    <definedName name="programs">#REF!</definedName>
+    <definedName name="ProjectName">[23]Stakeholders!$B$1</definedName>
+    <definedName name="Q">#REF!</definedName>
+    <definedName name="racing">#REF!</definedName>
+    <definedName name="racingnights">#REF!</definedName>
+    <definedName name="RAM_Equipment">#REF!</definedName>
+    <definedName name="RawData">#REF!</definedName>
+    <definedName name="RawHeader">#REF!</definedName>
+    <definedName name="redbeat">#REF!</definedName>
+    <definedName name="redtrax">#REF!</definedName>
+    <definedName name="RENTCAR">[24]MASTER!$L$3:$L$6</definedName>
+    <definedName name="rentcar_8">[8]MASTER!$L$3:$L$6</definedName>
+    <definedName name="rso">#REF!</definedName>
+    <definedName name="SALES">'[25]2000OB'!#REF!</definedName>
+    <definedName name="sales1">#REF!</definedName>
+    <definedName name="sales2">#REF!</definedName>
+    <definedName name="sales3">#REF!</definedName>
+    <definedName name="sccc">[1]MASTER!$B$3:$B$12</definedName>
+    <definedName name="sdas">[4]MASTER!$D$3:$D$17</definedName>
+    <definedName name="sdffdsdgh">[5]MASTER!$H$3:$H$12</definedName>
+    <definedName name="sdffdsdgh_8">[6]MASTER!$H$3:$H$12</definedName>
+    <definedName name="sdfsdgsg">[5]MASTER!$G$3:$G$43</definedName>
+    <definedName name="sdfsdgsg_8">[6]MASTER!$G$3:$G$43</definedName>
+    <definedName name="sdgsg">[5]MASTER!$H$3:$H$12</definedName>
+    <definedName name="sdgsg_8">[6]MASTER!$H$3:$H$12</definedName>
+    <definedName name="sdgsgg">[5]MASTER!$B$3:$B$12</definedName>
+    <definedName name="sdgsgg_8">[6]MASTER!$B$3:$B$12</definedName>
+    <definedName name="sdgsgsg">[5]MASTER!$B$3:$B$12</definedName>
+    <definedName name="sdgsgsg_8">[6]MASTER!$B$3:$B$12</definedName>
+    <definedName name="Server_Type">[26]TOBE!#REF!</definedName>
+    <definedName name="sfds">#REF!</definedName>
+    <definedName name="Soft_Equipment">#REF!</definedName>
+    <definedName name="sppack">#REF!</definedName>
+    <definedName name="SUKABUMI">[1]MASTER!$B$3:$B$12</definedName>
+    <definedName name="SUMATERA1">#REF!</definedName>
+    <definedName name="SUMATERA2">#REF!</definedName>
+    <definedName name="SUMATERA3">#REF!</definedName>
+    <definedName name="T">[1]MASTER!$C$3:$C$45</definedName>
+    <definedName name="TAHUN">#REF!</definedName>
+    <definedName name="TAHUN_8">[8]MASTER!$G$3:$G$43</definedName>
+    <definedName name="taka">[27]MASTER!$H$3:$H$12</definedName>
+    <definedName name="TANGGAL">[9]MASTER!$E$3:$E$33</definedName>
+    <definedName name="TANGGAL_8">[8]MASTER!$E$3:$E$33</definedName>
+    <definedName name="TASIKMALAYA">[13]MASTER!$G$3:$G$43</definedName>
+    <definedName name="Tasikmalayaa">[1]MASTER!$C$3:$C$45</definedName>
+    <definedName name="TeamMember">'[28]Calculation PE'!$C$70:$C$93</definedName>
+    <definedName name="test">'[29]Temp (User)'!$B$2:$B$37</definedName>
+    <definedName name="tg">[5]MASTER!$I$3:$I$31</definedName>
+    <definedName name="tg_8">[6]MASTER!$I$3:$I$31</definedName>
+    <definedName name="THN">[30]MASTER!$G$3:$G$33</definedName>
+    <definedName name="Tipe">[7]MASTER!$C$3:$C$45</definedName>
+    <definedName name="Title">'[28]Calculation PE'!$C$114:$C$115</definedName>
+    <definedName name="TM1REBUILDOPTION">1</definedName>
+    <definedName name="transport">#REF!</definedName>
+    <definedName name="tyop">[1]MASTER!$D$3:$D$17</definedName>
+    <definedName name="TYPE">#REF!</definedName>
+    <definedName name="TYPE_8">[8]MASTER!$C$3:$C$45</definedName>
+    <definedName name="U">#REF!</definedName>
+    <definedName name="v">[13]MASTER!$K$3:$K$5</definedName>
+    <definedName name="venue">#REF!</definedName>
+    <definedName name="vvvvv">[13]MASTER!$L$3:$L$6</definedName>
+    <definedName name="vxcgchjgvhjxbf">[5]MASTER!$C$3:$C$45</definedName>
+    <definedName name="vxcgchjgvhjxbf_8">[6]MASTER!$C$3:$C$45</definedName>
+    <definedName name="w">[31]MASTER!$C$3:$C$46</definedName>
+    <definedName name="WARNA">#REF!</definedName>
+    <definedName name="WARNA_8">[8]MASTER!$H$3:$H$12</definedName>
+    <definedName name="warna1">[2]MASTER!$H$3:$H$12</definedName>
+    <definedName name="WE">#REF!</definedName>
+    <definedName name="x">#REF!</definedName>
+    <definedName name="xDsfdsf">[5]MASTER!$J$3:$J$13</definedName>
+    <definedName name="xDsfdsf_8">[6]MASTER!$J$3:$J$13</definedName>
+    <definedName name="yes">[5]MASTER!$G$3:$G$43</definedName>
+    <definedName name="yes_8">[6]MASTER!$G$3:$G$43</definedName>
+    <definedName name="Zonelist">[22]zona!$I$7:$I$169</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
-  <si>
-    <t>Funtion Name</t>
-  </si>
-  <si>
-    <t>Cost Center</t>
-  </si>
-  <si>
-    <t>marketing</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>H9323JJ321</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Vehicle Type</t>
+  </si>
+  <si>
+    <t>RF_06-2017</t>
+  </si>
+  <si>
+    <t>RF_07-2017</t>
+  </si>
+  <si>
+    <t>RF_08-2017</t>
+  </si>
+  <si>
+    <t>RF_09-2017</t>
+  </si>
+  <si>
+    <t>RF_10-2017</t>
+  </si>
+  <si>
+    <t>RF_11-2017</t>
+  </si>
+  <si>
+    <t>RF_12-2017</t>
+  </si>
+  <si>
+    <t>OB_01-2018</t>
+  </si>
+  <si>
+    <t>OB_02-2018</t>
+  </si>
+  <si>
+    <t>OB_03-2018</t>
+  </si>
+  <si>
+    <t>OB_04-2018</t>
+  </si>
+  <si>
+    <t>OB_05-2018</t>
+  </si>
+  <si>
+    <t>OB_06-2018</t>
+  </si>
+  <si>
+    <t>OB_07-2018</t>
+  </si>
+  <si>
+    <t>OB_08-2018</t>
+  </si>
+  <si>
+    <t>OB_09-2018</t>
+  </si>
+  <si>
+    <t>OB_10-2018</t>
+  </si>
+  <si>
+    <t>OB_11-2018</t>
+  </si>
+  <si>
+    <t>OB_12-2018</t>
+  </si>
+  <si>
+    <t>LRP_01-2019</t>
+  </si>
+  <si>
+    <t>LRP_02-2019</t>
+  </si>
+  <si>
+    <t>LRP_03-2019</t>
+  </si>
+  <si>
+    <t>LRP_04-2019</t>
+  </si>
+  <si>
+    <t>LRP_05-2019</t>
+  </si>
+  <si>
+    <t>LRP_06-2019</t>
+  </si>
+  <si>
+    <t>LRP_07-2019</t>
+  </si>
+  <si>
+    <t>LRP_08-2019</t>
+  </si>
+  <si>
+    <t>LRP_09-2019</t>
+  </si>
+  <si>
+    <t>LRP_10-2019</t>
+  </si>
+  <si>
+    <t>LRP_11-2019</t>
+  </si>
+  <si>
+    <t>LRP_12-2019</t>
+  </si>
+  <si>
+    <t>LRP_01-2020</t>
+  </si>
+  <si>
+    <t>LRP_02-2020</t>
+  </si>
+  <si>
+    <t>LRP_03-2020</t>
+  </si>
+  <si>
+    <t>LRP_04-2020</t>
+  </si>
+  <si>
+    <t>LRP_05-2020</t>
+  </si>
+  <si>
+    <t>LRP_06-2020</t>
+  </si>
+  <si>
+    <t>LRP_07-2020</t>
+  </si>
+  <si>
+    <t>LRP_08-2020</t>
+  </si>
+  <si>
+    <t>LRP_09-2020</t>
+  </si>
+  <si>
+    <t>LRP_10-2020</t>
+  </si>
+  <si>
+    <t>LRP_11-2020</t>
+  </si>
+  <si>
+    <t>LRP_12-2020</t>
+  </si>
+  <si>
+    <t>QTY_05-2017</t>
+  </si>
+  <si>
+    <t>QTY_06-2017</t>
+  </si>
+  <si>
+    <t>QTY_07-2017</t>
+  </si>
+  <si>
+    <t>QTY_08-2017</t>
+  </si>
+  <si>
+    <t>QTY_09-2017</t>
+  </si>
+  <si>
+    <t>QTY_10-2017</t>
+  </si>
+  <si>
+    <t>QTY_11-2017</t>
+  </si>
+  <si>
+    <t>QTY_12-2017</t>
+  </si>
+  <si>
+    <t>QTY_01-2018</t>
+  </si>
+  <si>
+    <t>QTY_02-2018</t>
+  </si>
+  <si>
+    <t>QTY_03-2018</t>
+  </si>
+  <si>
+    <t>QTY_04-2018</t>
+  </si>
+  <si>
+    <t>QTY_05-2018</t>
+  </si>
+  <si>
+    <t>QTY_06-2018</t>
+  </si>
+  <si>
+    <t>QTY_07-2018</t>
+  </si>
+  <si>
+    <t>QTY_08-2018</t>
+  </si>
+  <si>
+    <t>QTY_09-2018</t>
+  </si>
+  <si>
+    <t>QTY_10-2018</t>
+  </si>
+  <si>
+    <t>QTY_11-2018</t>
+  </si>
+  <si>
+    <t>QTY_12-2018</t>
+  </si>
+  <si>
+    <t>QTY_01-2019</t>
+  </si>
+  <si>
+    <t>QTY_02-2019</t>
+  </si>
+  <si>
+    <t>QTY_03-2019</t>
+  </si>
+  <si>
+    <t>QTY_04-2019</t>
+  </si>
+  <si>
+    <t>QTY_05-2019</t>
+  </si>
+  <si>
+    <t>QTY_06-2019</t>
+  </si>
+  <si>
+    <t>QTY_07-2019</t>
+  </si>
+  <si>
+    <t>QTY_08-2019</t>
+  </si>
+  <si>
+    <t>QTY_09-2019</t>
+  </si>
+  <si>
+    <t>QTY_10-2019</t>
+  </si>
+  <si>
+    <t>QTY_11-2019</t>
+  </si>
+  <si>
+    <t>QTY_12-2019</t>
+  </si>
+  <si>
+    <t>QTY_01-2020</t>
+  </si>
+  <si>
+    <t>QTY_02-2020</t>
+  </si>
+  <si>
+    <t>QTY_03-2020</t>
+  </si>
+  <si>
+    <t>QTY_04-2020</t>
+  </si>
+  <si>
+    <t>QTY_05-2020</t>
+  </si>
+  <si>
+    <t>QTY_06-2020</t>
+  </si>
+  <si>
+    <t>QTY_07-2020</t>
+  </si>
+  <si>
+    <t>QTY_08-2020</t>
+  </si>
+  <si>
+    <t>QTY_09-2020</t>
+  </si>
+  <si>
+    <t>QTY_10-2020</t>
+  </si>
+  <si>
+    <t>QTY_11-2020</t>
+  </si>
+  <si>
+    <t>QTY_12-2020</t>
+  </si>
+  <si>
+    <t>3066550LGI</t>
+  </si>
+  <si>
+    <t>MARKETING</t>
+  </si>
+  <si>
+    <t>Patea</t>
+  </si>
+  <si>
+    <t>WTC</t>
+  </si>
+  <si>
+    <t>3066410ZCE</t>
+  </si>
+  <si>
+    <t>SALES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,40 +711,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,31 +742,49 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,7 +797,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,8 +818,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,29 +849,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,7 +871,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,13 +985,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,55 +1045,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,96 +1063,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -398,49 +1078,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,15 +1103,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +1124,63 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -496,15 +1191,11 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,136 +1208,162 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -709,8 +1426,979 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RSO KALIMANTAN "/>
+      <sheetName val="PONTIANAK "/>
+      <sheetName val="BANJARMASIN "/>
+      <sheetName val="SAMPIT"/>
+      <sheetName val="SAMARINDA  "/>
+      <sheetName val="BALIKPAPAN "/>
+      <sheetName val="MASTER"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Data CC &amp; HP"/>
+      <sheetName val="Requirement (2)"/>
+      <sheetName val="Detail FMC"/>
+      <sheetName val="Comparison (Rate)"/>
+      <sheetName val="Type &amp; Qty"/>
+      <sheetName val="Requirement"/>
+      <sheetName val="Cashflow 2009"/>
+      <sheetName val="COP Buy_Price &amp; Deprs"/>
+      <sheetName val="Comparison (IDR)"/>
+      <sheetName val="Assumption"/>
+      <sheetName val="Analysis (IDR)"/>
+      <sheetName val="Analysis (USD)"/>
+      <sheetName val="CS PNM MKT'08"/>
+      <sheetName val="CS COP 310309"/>
+      <sheetName val="CS CFM 310309"/>
+      <sheetName val="CS CFM 210809"/>
+      <sheetName val="CS AD 301009"/>
+      <sheetName val="CS ADIRA 070909"/>
+      <sheetName val="CS ADIRA 140909"/>
+      <sheetName val="CS ADIRA 180110"/>
+      <sheetName val="CS ADIRA 190110"/>
+      <sheetName val="CS TRAC (BUY) 171109"/>
+      <sheetName val="CS TRAC (LEASE) 131109"/>
+      <sheetName val="CS TRAC (LEASE) 180110"/>
+      <sheetName val="CS TRAC (BUY) 201009"/>
+      <sheetName val="CS TRAC (LEASE) 190110"/>
+      <sheetName val="Lease"/>
+      <sheetName val="Data Trac"/>
+      <sheetName val="Pivot Requirement"/>
+      <sheetName val="Data HR"/>
+      <sheetName val="Data Trac CFM (original)"/>
+      <sheetName val="Buy_Price &amp; Deprs"/>
+      <sheetName val="Data Trac Avanza - Pick Up"/>
+      <sheetName val="Data Procurement"/>
+      <sheetName val="Devi"/>
+      <sheetName val="Buy_FMC"/>
+      <sheetName val="Buy_Insurance"/>
+      <sheetName val="Buy_Insurance (2)"/>
+      <sheetName val="Buy_Admin"/>
+      <sheetName val="Adm Salary"/>
+      <sheetName val="CS Admin"/>
+      <sheetName val=" OT Admin Formula"/>
+      <sheetName val="Data TPO Mkt"/>
+      <sheetName val="Data MKT"/>
+      <sheetName val="Data Trac COP"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="MASTER"/>
+      <sheetName val="LAMPUNG"/>
+      <sheetName val="PALEMBANG"/>
+      <sheetName val="LAHAT"/>
+      <sheetName val="JAMBI"/>
+      <sheetName val="MUARABUNGO"/>
+      <sheetName val="BENGKULU"/>
+      <sheetName val="RSO SMT-3"/>
+      <sheetName val="Assumption"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="MASTER"/>
+      <sheetName val="LAMPUNG"/>
+      <sheetName val="PALEMBANG"/>
+      <sheetName val="LAHAT"/>
+      <sheetName val="JAMBI"/>
+      <sheetName val="MUARABUNGO"/>
+      <sheetName val="BENGKULU"/>
+      <sheetName val="RSO SMT-3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RSO KALIMANTAN "/>
+      <sheetName val="PONTIANAK "/>
+      <sheetName val="PONTIANAK  (2)"/>
+      <sheetName val="BANJARMASIN "/>
+      <sheetName val="SAMPIT"/>
+      <sheetName val="SAMARINDA"/>
+      <sheetName val="BALIKPAPAN "/>
+      <sheetName val="MASTER"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Monitoring"/>
+      <sheetName val="Temp (Oct-10)"/>
+      <sheetName val="Temp (Nov-10)"/>
+      <sheetName val="Pool 2010"/>
+      <sheetName val="Order 2010 (15-Oct-2010)"/>
+      <sheetName val="Order 2010 (01-Nov-10)"/>
+      <sheetName val="Order 2010 (15-Nov-10)"/>
+      <sheetName val="Order 2010 (01-Dec-10)"/>
+      <sheetName val="Order 2010 (15-Dec-10)"/>
+      <sheetName val="Order 2010 (01-Jan-11)"/>
+      <sheetName val="Panduan Area"/>
+      <sheetName val="CC"/>
+      <sheetName val="Price OPS"/>
+      <sheetName val="MASTER"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="MASTER"/>
+      <sheetName val="RSO JAWA BARAT"/>
+      <sheetName val="BANDUNG "/>
+      <sheetName val="SUKABUMI"/>
+      <sheetName val="TASIKMALAYA "/>
+      <sheetName val="CIREBON "/>
+      <sheetName val="PURWOKERTO "/>
+      <sheetName val="Temp (Oct-10)"/>
+      <sheetName val="Panduan Area"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="MASTER"/>
+      <sheetName val="RSO JAWA BARAT"/>
+      <sheetName val="BANDUNG "/>
+      <sheetName val="SUKABUMI"/>
+      <sheetName val="TASIKMALAYA "/>
+      <sheetName val="CIREBON "/>
+      <sheetName val="PURWOKERTO "/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RSO SMT-3"/>
+      <sheetName val="LAMPUNG"/>
+      <sheetName val="PALEMBANG"/>
+      <sheetName val="LAHAT"/>
+      <sheetName val="JAMBI"/>
+      <sheetName val="MUARABUNGO"/>
+      <sheetName val="BENGKULU"/>
+      <sheetName val="MASTER"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RSO KALIMANTAN "/>
+      <sheetName val="PONTIANAK "/>
+      <sheetName val="BANJARMASIN "/>
+      <sheetName val="SAMPIT"/>
+      <sheetName val="SAMARINDA  "/>
+      <sheetName val="BALIKPAPAN "/>
+      <sheetName val="MASTER"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RSO SMT-1"/>
+      <sheetName val="MEDAN "/>
+      <sheetName val="P.SIANTAR "/>
+      <sheetName val=" B.ACEH  "/>
+      <sheetName val="P.SIDEMPUAN "/>
+      <sheetName val="LHOKSEMAWE "/>
+      <sheetName val="MASTER"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="JKT-4  (3)"/>
+      <sheetName val="RSO JAKARTA"/>
+      <sheetName val="JKT-1 "/>
+      <sheetName val="JKT-2 "/>
+      <sheetName val="TANGERANG"/>
+      <sheetName val="JKT-3 "/>
+      <sheetName val="BOGOR "/>
+      <sheetName val="JKT-4 "/>
+      <sheetName val="JKT-4  (2)"/>
+      <sheetName val="KARAWANG "/>
+      <sheetName val="SERANG "/>
+      <sheetName val="MASTER"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Check - Pivot"/>
+      <sheetName val="Excel"/>
+      <sheetName val="Account Analysis"/>
+      <sheetName val="Provisi Sewa Kendaraan"/>
+      <sheetName val="MASTER"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Invoice"/>
+      <sheetName val="Payment 2009"/>
+      <sheetName val="Other"/>
+      <sheetName val="Akhir Kontrak-F"/>
+      <sheetName val="Proc"/>
+      <sheetName val="Alih ke HM"/>
+      <sheetName val="Akhir Kontrak"/>
+      <sheetName val="Payment 2008"/>
+      <sheetName val="Excel"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="OH"/>
+      <sheetName val="Z1A"/>
+      <sheetName val="Z1"/>
+      <sheetName val="Z2"/>
+      <sheetName val="Z3"/>
+      <sheetName val="Position"/>
+      <sheetName val="zona"/>
+      <sheetName val="formula"/>
+      <sheetName val="DraftPR"/>
+      <sheetName val="JL"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Payment 2008"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Actions and Issues"/>
+      <sheetName val="Changes"/>
+      <sheetName val="Risks"/>
+      <sheetName val="Scope"/>
+      <sheetName val="Costs"/>
+      <sheetName val="Schedule"/>
+      <sheetName val="Stakeholders"/>
+      <sheetName val="RACI"/>
+      <sheetName val="Communication plan"/>
+      <sheetName val="Assumptions"/>
+      <sheetName val="Meetings"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TASIKMALAYA "/>
+      <sheetName val="MASTER"/>
+      <sheetName val="Stakeholders"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="2000OB"/>
+      <sheetName val="A1999"/>
+      <sheetName val="A2000"/>
+      <sheetName val="IMS"/>
+      <sheetName val="MASTER"/>
+      <sheetName val="UV"/>
+      <sheetName val="US"/>
+      <sheetName val="LIC"/>
+      <sheetName val="CM"/>
+      <sheetName val="Cover"/>
+      <sheetName val="TREND"/>
+      <sheetName val="IMS-T"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TOBE"/>
+      <sheetName val="Rates"/>
+      <sheetName val="Costs"/>
+      <sheetName val="2000OB"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RSO BALI &amp; NUSRA"/>
+      <sheetName val="DENPASAR "/>
+      <sheetName val="MATARAM"/>
+      <sheetName val="KUPANG"/>
+      <sheetName val="MASTER"/>
+      <sheetName val="TOBE"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Terminology"/>
+      <sheetName val="Appendix"/>
+      <sheetName val="D-HC"/>
+      <sheetName val="D-UC"/>
+      <sheetName val="B-PC"/>
+      <sheetName val="B-OR"/>
+      <sheetName val="B-F"/>
+      <sheetName val="Calculation PE"/>
+      <sheetName val="B-PE"/>
+      <sheetName val="SumPE"/>
+      <sheetName val="CBA"/>
+      <sheetName val="650Jakarta"/>
+      <sheetName val="650Java"/>
+      <sheetName val="PerCategory"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Office"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="MASTER"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master - Otd"/>
+      <sheetName val="Summary"/>
+      <sheetName val="2008"/>
+      <sheetName val="1"/>
+      <sheetName val="2"/>
+      <sheetName val="3"/>
+      <sheetName val="4"/>
+      <sheetName val="5"/>
+      <sheetName val="6"/>
+      <sheetName val="7"/>
+      <sheetName val="8"/>
+      <sheetName val="9"/>
+      <sheetName val="10"/>
+      <sheetName val="11"/>
+      <sheetName val="12"/>
+      <sheetName val="2 Way"/>
+      <sheetName val="Cancel"/>
+      <sheetName val="Temp (User)"/>
+      <sheetName val="Calculation PE"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="3_Brand"/>
+      <sheetName val="6_Activity"/>
+      <sheetName val="Lvl"/>
+      <sheetName val="FORM"/>
+      <sheetName val="FORM (2)"/>
+      <sheetName val="2-Department"/>
+      <sheetName val="3-Brand"/>
+      <sheetName val="WBS Structure"/>
+      <sheetName val="4-Program"/>
+      <sheetName val="5-location"/>
+      <sheetName val="6-Activity"/>
+      <sheetName val="6-Conversion"/>
+      <sheetName val="MASTER"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RSO JAKARTA"/>
+      <sheetName val="JKT-1 "/>
+      <sheetName val="JKT-2 "/>
+      <sheetName val="TANGERANG"/>
+      <sheetName val="JKT-3 "/>
+      <sheetName val="BOGOR "/>
+      <sheetName val="JKT-4 "/>
+      <sheetName val="KARAWANG "/>
+      <sheetName val="SERANG "/>
+      <sheetName val="MASTER"/>
+      <sheetName val="Temp (User)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="INDONESIA"/>
+      <sheetName val="MASTER"/>
+      <sheetName val="OWN PER-TAHUN"/>
+      <sheetName val="OWN PER-JENIS"/>
+      <sheetName val="RENT"/>
+      <sheetName val="OWN+RENT"/>
+      <sheetName val="MPP"/>
+      <sheetName val="P9"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="MASTER"/>
+      <sheetName val="RSO SMT-1"/>
+      <sheetName val="MEDAN "/>
+      <sheetName val="P.SIANTAR "/>
+      <sheetName val=" B.ACEH  "/>
+      <sheetName val="P.SIDEMPUAN "/>
+      <sheetName val="LHOKSEMAWE "/>
+      <sheetName val="6_Activity"/>
+      <sheetName val="3_Brand"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="MASTER"/>
+      <sheetName val="RSO SMT-2"/>
+      <sheetName val="PADANG"/>
+      <sheetName val="PEKAN BARU"/>
+      <sheetName val="BATAM"/>
+      <sheetName val="TJ.PINANG"/>
+      <sheetName val="BUKIT TINGGI"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="MASTER"/>
+      <sheetName val="RSO SMT-2"/>
+      <sheetName val="PADANG"/>
+      <sheetName val="PEKAN BARU"/>
+      <sheetName val="BATAM"/>
+      <sheetName val="TJ.PINANG"/>
+      <sheetName val="BUKIT TINGGI"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RSO KALIMANTAN "/>
+      <sheetName val="PONTIANAK"/>
+      <sheetName val="BANJARMASIN "/>
+      <sheetName val="SAMPIT"/>
+      <sheetName val="SAMARINDA"/>
+      <sheetName val="BALIKPAPAN "/>
+      <sheetName val="MASTER"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="MASTER"/>
+      <sheetName val="RSO SMT-1"/>
+      <sheetName val="MEDAN "/>
+      <sheetName val="P.SIANTAR "/>
+      <sheetName val=" B.ACEH  "/>
+      <sheetName val="P.SIDEMPUAN "/>
+      <sheetName val="LHOKSEMAWE "/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RSO BALI &amp; NUSRA"/>
+      <sheetName val="DENPASAR "/>
+      <sheetName val="MATARAM"/>
+      <sheetName val="KUPANG"/>
+      <sheetName val="MASTER"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -966,44 +2654,2792 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:CM10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="21.8190476190476" defaultRowHeight="9.65" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="12.8571428571429"/>
+    <col min="1" max="1" width="11" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.1428571428571" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.5714285714286" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.0857142857143" style="4" customWidth="1"/>
+    <col min="6" max="10" width="9.26666666666667" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.5714285714286" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.0857142857143" style="4" customWidth="1"/>
+    <col min="13" max="23" width="9.26666666666667" style="4" customWidth="1"/>
+    <col min="24" max="34" width="8.54285714285714" style="4" customWidth="1"/>
+    <col min="35" max="47" width="9.18095238095238" style="4" customWidth="1"/>
+    <col min="48" max="48" width="6" style="4" customWidth="1"/>
+    <col min="49" max="55" width="8.90476190476191" style="4" customWidth="1"/>
+    <col min="56" max="67" width="9.08571428571429" style="4" customWidth="1"/>
+    <col min="68" max="79" width="10" style="4" customWidth="1"/>
+    <col min="80" max="91" width="9" style="4" customWidth="1"/>
+    <col min="92" max="16384" width="21.8190476190476" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:91">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>12345678900</v>
+    <row r="2" customHeight="1" spans="1:91">
+      <c r="A2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2557000</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2557000</v>
+      </c>
+      <c r="G2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="H2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="I2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="J2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="K2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="L2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="M2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="N2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="O2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="P2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="R2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="S2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="T2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="U2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="V2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="W2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="X2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AA2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AB2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AF2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AK2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AM2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AN2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AO2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AP2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AQ2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AR2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AS2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AT2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AU2" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AV2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BP2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="11">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="11">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="11">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="11">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="11">
+        <v>1</v>
+      </c>
+      <c r="CE2" s="11">
+        <v>1</v>
+      </c>
+      <c r="CF2" s="11">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="11">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="11">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="11">
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="11">
+        <v>1</v>
+      </c>
+      <c r="CK2" s="11">
+        <v>1</v>
+      </c>
+      <c r="CL2" s="11">
+        <v>1</v>
+      </c>
+      <c r="CM2" s="11">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+    <row r="3" customHeight="1" spans="1:91">
+      <c r="A3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2557000</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2557000</v>
+      </c>
+      <c r="G3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="H3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="I3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="J3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="K3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="L3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="M3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="N3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="O3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="P3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="R3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="S3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="T3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="U3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="V3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="W3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="X3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AB3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AJ3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AK3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AL3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AM3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AN3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AO3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AP3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AQ3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AR3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AS3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AT3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AU3" s="11">
+        <v>4116000</v>
+      </c>
+      <c r="AV3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BZ3" s="11">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="11">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="11">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="11">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="11">
+        <v>1</v>
+      </c>
+      <c r="CE3" s="11">
+        <v>1</v>
+      </c>
+      <c r="CF3" s="11">
+        <v>1</v>
+      </c>
+      <c r="CG3" s="11">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="11">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="11">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="11">
+        <v>1</v>
+      </c>
+      <c r="CK3" s="11">
+        <v>1</v>
+      </c>
+      <c r="CL3" s="11">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:91">
+      <c r="A4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="G4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="I4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="J4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="L4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="M4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="O4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="P4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="R4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="S4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="U4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="V4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="W4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="X4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AI4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AJ4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AK4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AL4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AM4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AN4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AO4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AP4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AQ4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AR4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AS4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AT4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AU4" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AV4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BZ4" s="11">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="11">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="11">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="11">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="11">
+        <v>1</v>
+      </c>
+      <c r="CE4" s="11">
+        <v>1</v>
+      </c>
+      <c r="CF4" s="11">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="11">
+        <v>1</v>
+      </c>
+      <c r="CH4" s="11">
+        <v>1</v>
+      </c>
+      <c r="CI4" s="11">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="11">
+        <v>1</v>
+      </c>
+      <c r="CK4" s="11">
+        <v>1</v>
+      </c>
+      <c r="CL4" s="11">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:91">
+      <c r="A5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="F5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="H5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="I5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="J5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="K5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="L5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="M5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="N5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="O5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="P5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="R5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="S5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="T5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="U5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="V5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="W5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="X5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AF5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AJ5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AK5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AL5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AM5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AN5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AO5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AP5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AQ5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AR5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AS5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AT5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AU5" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AV5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="11">
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="11">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="11">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="11">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="11">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="11">
+        <v>1</v>
+      </c>
+      <c r="CE5" s="11">
+        <v>1</v>
+      </c>
+      <c r="CF5" s="11">
+        <v>1</v>
+      </c>
+      <c r="CG5" s="11">
+        <v>1</v>
+      </c>
+      <c r="CH5" s="11">
+        <v>1</v>
+      </c>
+      <c r="CI5" s="11">
+        <v>1</v>
+      </c>
+      <c r="CJ5" s="11">
+        <v>1</v>
+      </c>
+      <c r="CK5" s="11">
+        <v>1</v>
+      </c>
+      <c r="CL5" s="11">
+        <v>1</v>
+      </c>
+      <c r="CM5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:91">
+      <c r="A6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="F6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="G6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="I6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="J6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="K6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="L6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="M6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="N6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="O6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="P6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="R6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="S6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="T6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="U6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="V6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="W6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="X6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AJ6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AK6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AL6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AM6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AN6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AO6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AP6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AQ6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AR6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AS6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AT6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AU6" s="11">
+        <v>3035000</v>
+      </c>
+      <c r="AV6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="11">
+        <v>1</v>
+      </c>
+      <c r="CA6" s="11">
+        <v>1</v>
+      </c>
+      <c r="CB6" s="11">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="11">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="11">
+        <v>1</v>
+      </c>
+      <c r="CE6" s="11">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="11">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="11">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="11">
+        <v>1</v>
+      </c>
+      <c r="CI6" s="11">
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="11">
+        <v>1</v>
+      </c>
+      <c r="CK6" s="11">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="11">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:91">
+      <c r="A7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="G7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="H7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="I7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="J7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="K7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="L7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="M7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="N7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="O7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="P7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="R7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="S7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="T7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="U7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="V7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="W7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="X7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AK7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AL7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AM7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AN7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AO7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AP7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AQ7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AR7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AS7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AT7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AU7" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AV7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BT7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BW7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BX7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="11">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="11">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="11">
+        <v>1</v>
+      </c>
+      <c r="CB7" s="11">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="11">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="11">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="11">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="11">
+        <v>1</v>
+      </c>
+      <c r="CG7" s="11">
+        <v>1</v>
+      </c>
+      <c r="CH7" s="11">
+        <v>1</v>
+      </c>
+      <c r="CI7" s="11">
+        <v>1</v>
+      </c>
+      <c r="CJ7" s="11">
+        <v>1</v>
+      </c>
+      <c r="CK7" s="11">
+        <v>1</v>
+      </c>
+      <c r="CL7" s="11">
+        <v>1</v>
+      </c>
+      <c r="CM7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:91">
+      <c r="A8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="F8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="H8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="I8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="J8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="K8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="L8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="M8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="N8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="O8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="P8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="R8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="S8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="T8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="U8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="V8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="W8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="X8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AK8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AL8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AM8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AN8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AO8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AP8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AQ8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AR8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AS8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AT8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AU8" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AV8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="11">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="11">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="11">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="11">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="11">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="11">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="11">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="11">
+        <v>1</v>
+      </c>
+      <c r="CH8" s="11">
+        <v>1</v>
+      </c>
+      <c r="CI8" s="11">
+        <v>1</v>
+      </c>
+      <c r="CJ8" s="11">
+        <v>1</v>
+      </c>
+      <c r="CK8" s="11">
+        <v>1</v>
+      </c>
+      <c r="CL8" s="11">
+        <v>1</v>
+      </c>
+      <c r="CM8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:91">
+      <c r="A9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="G9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="H9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="I9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="J9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="K9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="L9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="M9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="N9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="O9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="P9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="R9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="S9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="T9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="U9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="V9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="W9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="X9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AH9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AI9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AJ9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AK9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AL9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AM9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AN9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AO9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AP9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AQ9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AR9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AS9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AT9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AU9" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AV9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BI9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BL9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BO9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BP9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BQ9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BR9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BS9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BT9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BU9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BV9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BW9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BX9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BY9" s="11">
+        <v>1</v>
+      </c>
+      <c r="BZ9" s="11">
+        <v>1</v>
+      </c>
+      <c r="CA9" s="11">
+        <v>1</v>
+      </c>
+      <c r="CB9" s="11">
+        <v>1</v>
+      </c>
+      <c r="CC9" s="11">
+        <v>1</v>
+      </c>
+      <c r="CD9" s="11">
+        <v>1</v>
+      </c>
+      <c r="CE9" s="11">
+        <v>1</v>
+      </c>
+      <c r="CF9" s="11">
+        <v>1</v>
+      </c>
+      <c r="CG9" s="11">
+        <v>1</v>
+      </c>
+      <c r="CH9" s="11">
+        <v>1</v>
+      </c>
+      <c r="CI9" s="11">
+        <v>1</v>
+      </c>
+      <c r="CJ9" s="11">
+        <v>1</v>
+      </c>
+      <c r="CK9" s="11">
+        <v>1</v>
+      </c>
+      <c r="CL9" s="11">
+        <v>1</v>
+      </c>
+      <c r="CM9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:91">
+      <c r="A10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="F10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="H10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="I10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="J10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="K10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="L10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="M10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="N10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="O10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="P10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="R10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="S10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="T10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="U10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="V10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="W10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="X10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AB10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AC10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AD10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AF10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AH10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AI10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AJ10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AK10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AL10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AM10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AN10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AO10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AP10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AQ10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AR10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AS10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AT10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AU10" s="11">
+        <v>3154000</v>
+      </c>
+      <c r="AV10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BF10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BJ10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BK10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BL10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BN10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BO10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BP10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BQ10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BR10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BS10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BT10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BU10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BV10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BW10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BX10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BY10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BZ10" s="11">
+        <v>1</v>
+      </c>
+      <c r="CA10" s="11">
+        <v>1</v>
+      </c>
+      <c r="CB10" s="11">
+        <v>1</v>
+      </c>
+      <c r="CC10" s="11">
+        <v>1</v>
+      </c>
+      <c r="CD10" s="11">
+        <v>1</v>
+      </c>
+      <c r="CE10" s="11">
+        <v>1</v>
+      </c>
+      <c r="CF10" s="11">
+        <v>1</v>
+      </c>
+      <c r="CG10" s="11">
+        <v>1</v>
+      </c>
+      <c r="CH10" s="11">
+        <v>1</v>
+      </c>
+      <c r="CI10" s="11">
+        <v>1</v>
+      </c>
+      <c r="CJ10" s="11">
+        <v>1</v>
+      </c>
+      <c r="CK10" s="11">
+        <v>1</v>
+      </c>
+      <c r="CL10" s="11">
+        <v>1</v>
+      </c>
+      <c r="CM10" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <autoFilter ref="A1:CM10"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>